--- a/mercado_libre/API/criterios_de_limpieza.xlsx
+++ b/mercado_libre/API/criterios_de_limpieza.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\TESIS_2021\mercado_libre\API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\TFG\mercado_libre\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Apartamentos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Apartamentos!$A$1:$J$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Apartamentos!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="154">
   <si>
     <t xml:space="preserve"> id </t>
   </si>
@@ -482,10 +482,13 @@
     <t>Zona en la que se ubica el apartamento respecto a la calle Avenida Italia en continuación con la calle 18 de Julio (Norte o Sur).</t>
   </si>
   <si>
-    <t>Se calcula el percentil 75% de precio entre los apartamentos que cumplan con la condición price &lt; 40.000 y se eliminan observaciones con precio inferiror a dicho percentil. Se eliminan todas las observaciones que contengan una secuencia de 3 o más números repetidos en la variable price (i.e. 11111, 5555, etc.). Se pasan todos los importes a dólares estadounidenses utilizando el valor del tipo de cambio actual (web scrapping a página del INE: https://www.ine.gub.uy/).</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Se separa el valor numérico de la moneda en la que está expresado: maintenance_fee = valor numérico, maintenance_fee_unidad = moneda. Se pasan todos los importes a dólares estadounidenses utilizando el valor del tipo de cambio actual (web scrapping a página del INE: https://www.ine.gub.uy/). Se topea valores en UYU 50.000, se considera que valores superiores son datos incorrectos y se asigna NA.</t>
+  </si>
+  <si>
+    <t>Se calcula el percentil 75% de precio entre los apartamentos que cumplan con la condición price &lt; 40.000 y se eliminan observaciones con precio inferior a dicho percentil. Se eliminan todas las observaciones que contengan una secuencia de 3 o más números repetidos en la variable price (i.e. 11111, 5555, etc.). Se pasan todos los importes a dólares estadounidenses utilizando el valor del tipo de cambio actual (web scrapping a página del INE: https://www.ine.gub.uy/).</t>
+  </si>
+  <si>
+    <t>Si title contiene la palabra edificio y no contiene la palabra apartamento y ademas el precio es superior a USD 1.000.000 se considera que no se trata de un apartamento a la venta sino que se trata de un edificio a la venta y se elimina la observación.</t>
   </si>
 </sst>
 </file>
@@ -825,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +894,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -905,7 +908,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1579,7 +1582,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>124</v>
@@ -1713,6 +1716,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/mercado_libre/API/criterios_de_limpieza.xlsx
+++ b/mercado_libre/API/criterios_de_limpieza.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\TFG\mercado_libre\API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\TESIS_2021\mercado_libre\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,9 +470,6 @@
     <t>Debido a que existen georreferencias incorrectas en los datos, para calcular a qué zona pertenece el apartamento se definió considerar la georreferencia del centroide del barrio al que pertenece. Fue necesaria la obtención de la geometría vectorial de la calle Avenida Italia en continuación con la calle 18 de Julio. Elaboración propia del archivo shapefile.</t>
   </si>
   <si>
-    <t>Debido a que existen georreferencias incorrectas en los datos, para calcular la distancia al shopping más cercano se definió considerar la georreferencia del centroide del barrio al que pertenece. Fue necesaria la obtención de las coordenadas de todos los shoppings ubicados en montevideo. Elaboración propia del archivo shapefile.</t>
-  </si>
-  <si>
     <t>Distancia al shopping más cercano (en kilómetros).</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>Si title contiene la palabra edificio y no contiene la palabra apartamento y ademas el precio es superior a USD 1.000.000 se considera que no se trata de un apartamento a la venta sino que se trata de un edificio a la venta y se elimina la observación.</t>
+  </si>
+  <si>
+    <t>Debido a que existen georreferencias incorrectas en los datos, para calcular la distancia al shopping más cercano se definió considerar la georreferencia del centroide del barrio al que pertenece. Fue necesaria la obtención de las coordenadas de todos los shoppings ubicados en montevideo. Elaboración propia del archivo shapefile. Se recodifica a menos de 1 km de distanicia (considerado "cerca"), entre 1 km y 5 km (considerado "caminable"), más de 5 km (considerado "no caminable").</t>
   </si>
 </sst>
 </file>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>54</v>
@@ -894,7 +894,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>112</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>119</v>
@@ -1306,7 +1306,7 @@
         <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>117</v>
@@ -1582,7 +1582,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>124</v>
@@ -1593,7 +1593,7 @@
         <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>123</v>
@@ -1650,7 +1650,7 @@
         <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>142</v>
@@ -1664,7 +1664,7 @@
         <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>129</v>
@@ -1678,7 +1678,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>135</v>
@@ -1687,18 +1687,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1706,10 +1706,10 @@
         <v>145</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>146</v>

--- a/mercado_libre/API/criterios_de_limpieza.xlsx
+++ b/mercado_libre/API/criterios_de_limpieza.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Apartamentos" sheetId="1" r:id="rId1"/>
+    <sheet name="comentarios" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Apartamentos!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Apartamentos!$A$1:$J$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
   <si>
     <t xml:space="preserve"> id </t>
   </si>
@@ -443,12 +444,6 @@
     <t>Se utiliza para el caso que haya que realizar conversiones a dólares estadounidenses y luego se elimina.</t>
   </si>
   <si>
-    <t>Valores  inferiores a -35 y superiores a -34.7 se consideran datos erróneos y se asigna NA.</t>
-  </si>
-  <si>
-    <t>Valores  inferiores a -56.5 y superiores a -56 se consideran datos erróneos y se asigna NA.</t>
-  </si>
-  <si>
     <t>Se asume que los NA son No y se recodifican los valores en función de ello.</t>
   </si>
   <si>
@@ -489,6 +484,63 @@
   </si>
   <si>
     <t>Debido a que existen georreferencias incorrectas en los datos, para calcular la distancia al shopping más cercano se definió considerar la georreferencia del centroide del barrio al que pertenece. Fue necesaria la obtención de las coordenadas de todos los shoppings ubicados en montevideo. Elaboración propia del archivo shapefile. Se recodifica a menos de 1 km de distanicia (considerado "cerca"), entre 1 km y 5 km (considerado "caminable"), más de 5 km (considerado "no caminable").</t>
+  </si>
+  <si>
+    <t>dist_rambla</t>
+  </si>
+  <si>
+    <t>Distancia a la ramble este de Montevideo</t>
+  </si>
+  <si>
+    <t>Valores  inferiores a -56.5 y superiores a -56 se consideran datos erróneos y se les imputa la longitud del centroide del barrio al cual pertenece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores  inferiores a -35 y superiores a -34.7 se consideran datos erróneos y se les imputa la latitud del centroide del barrio al cual pertenece. </t>
+  </si>
+  <si>
+    <t>Latitud y longitud - Criterios del limpieza</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Valores  inferiores a -35 y superiores a -34.7 se consideran datos erróneos y se les imputa la latitud del centroide del barrio al cual pertenece.  Ver comentarios adicionales en hoja comentarios.</t>
+  </si>
+  <si>
+    <t>Valores  inferiores a -56.5 y superiores a -56 se consideran datos erróneos y se les imputa la longitud del centroide del barrio al cual pertenece. Ver comentarios adicionales en hoja comentarios.</t>
+  </si>
+  <si>
+    <t>Además, hay observaciones que tienen incorrecto el dato de latitud y longitud.</t>
+  </si>
+  <si>
+    <t>A los efectos de éste trabajo, asumimos que el dato correcto es el barrio en el cuál se encuentra el apartamento (depto city_name)</t>
+  </si>
+  <si>
+    <t>Por lo que cualquier observacion que tenga latitud y longitud que no pertenezca al barrio se le imputa la georreferencia del centroide del barrio</t>
+  </si>
+  <si>
+    <t>Esto lo hacemos utilizando como auxiliar la variable zona_avditalia construida asignando norte o sur según el baricentro del barrio al cual pertenece la observacion se encuentra al norte o sur de avenida italia.</t>
+  </si>
+  <si>
+    <t>Hay algunas observaciones que se encuentran en el limite de avd italia - 18 pero que por haber utilizado el baricentro del barrio al cual pertenece quedaron calificadas  en la zona incorrecta</t>
+  </si>
+  <si>
+    <t>Para determinar si latitud  ylongitud  son datoss correctoss, se ve si la zona avd italia calculada con longityud y latitud es la misma que la calculada con baricentro barrio</t>
+  </si>
+  <si>
+    <t>si son iguales decimos que el dato latitud y longitud en la base es correcto, si son diferentes a latitud y lngitud le imputamos la latitud y longitud del baricentro del barrio</t>
+  </si>
+  <si>
+    <t>Una vez realizado esto calculamos la distancia al shopping mas ercano.</t>
+  </si>
+  <si>
+    <t>Lo bueno: que hay latitudes y longitudes que estaban muy mal (ej. Del barrio malvin en lezica) y conservar esos datos incorrectos nos genera much{isimo ruido en la base</t>
+  </si>
+  <si>
+    <t>Lo malo: hay datos que estaban correctos pero que por encontrarse sobre avd italia - 18 cuando se uso el baricentro del barrio quedo en zonas diferente (ej  sur cuando en realidad era norte)</t>
   </si>
 </sst>
 </file>
@@ -532,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,6 +597,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>54</v>
@@ -894,7 +952,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,7 +966,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,7 +1078,7 @@
         <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1034,7 +1092,7 @@
         <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1232,7 @@
         <v>81</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,7 +1246,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,7 +1285,7 @@
         <v>112</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>119</v>
@@ -1306,7 +1364,7 @@
         <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>117</v>
@@ -1343,7 +1401,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
@@ -1428,7 +1486,7 @@
         <v>93</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1442,7 +1500,7 @@
         <v>94</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,7 +1514,7 @@
         <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,7 +1528,7 @@
         <v>96</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,7 +1542,7 @@
         <v>97</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,7 +1556,7 @@
         <v>98</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1512,7 +1570,7 @@
         <v>99</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,7 +1584,7 @@
         <v>100</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1540,7 +1598,7 @@
         <v>101</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,7 +1612,7 @@
         <v>102</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1568,7 +1626,7 @@
         <v>103</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,7 +1640,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>124</v>
@@ -1593,7 +1651,7 @@
         <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>123</v>
@@ -1613,7 +1671,7 @@
         <v>104</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E53" s="2"/>
     </row>
@@ -1650,13 +1708,13 @@
         <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1664,7 +1722,7 @@
         <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>129</v>
@@ -1678,7 +1736,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>135</v>
@@ -1689,34 +1747,132 @@
     </row>
     <row r="59" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C61" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:J61"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/mercado_libre/API/criterios_de_limpieza.xlsx
+++ b/mercado_libre/API/criterios_de_limpieza.xlsx
@@ -426,21 +426,12 @@
     <t>Se considera que valores superiores a 10 son datos incorrectos y se les asigna NA. Se recodifica la variable a 1 para los casos en que vale 0 ó 1 (valor 0 se considera dato incorrecto y se le asigna 1), 2 o más en otro caso.</t>
   </si>
   <si>
-    <t>Se separa el valor numérico de la unidad de medida: covered_area = valor numérico, covered_area_unidad = unidad de medida. Se eliminan todas las observaciones que contengan una secuencia de 3 o más números repetidos  (i.e. 11111, 5555, etc.)</t>
-  </si>
-  <si>
-    <t>Se separa el valor numérico de la unidad de medida: total_area = valor numérico, total_area_unidad = unidad de medida. Se eliminan todas las observaciones que contengan una secuencia de 3 o más números repetidos  (i.e. 11111, 5555, etc.)</t>
-  </si>
-  <si>
     <t>no_covered_area</t>
   </si>
   <si>
     <t>Área no cubierta.</t>
   </si>
   <si>
-    <t>Se calcula como la diferencia entre total_area y covered_area. Cuando toma valor negativo se considera que los daots son incorrectos y se asigna NA.</t>
-  </si>
-  <si>
     <t>Se utiliza para el caso que haya que realizar conversiones a dólares estadounidenses y luego se elimina.</t>
   </si>
   <si>
@@ -541,6 +532,15 @@
   </si>
   <si>
     <t>Lo malo: hay datos que estaban correctos pero que por encontrarse sobre avd italia - 18 cuando se uso el baricentro del barrio quedo en zonas diferente (ej  sur cuando en realidad era norte)</t>
+  </si>
+  <si>
+    <t>Se separa el valor numérico de la unidad de medida: covered_area = valor numérico, covered_area_unidad = unidad de medida. Se eliminan todas las observaciones que contengan una secuencia de 3 o más números repetidos  (i.e. 11111, 5555, etc.). Adicionalmente para valores demasiado grandes, se decide tomar cómo dato erróneo todo valor superior a 1000 y se le imputa NA.</t>
+  </si>
+  <si>
+    <t>Se calcula como la diferencia entre total_area y covered_area. Cuando toma valor negativo se considera que los daots son incorrectos y se asigna NA. Adicionalmente para valores demasiado grandes, se decide tomar cómo dato erróneo todo valor superior a 1000 y se le imputa NA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se separa el valor numérico de la unidad de medida: total_area = valor numérico, total_area_unidad = unidad de medida. Se eliminan todas las observaciones que contengan una secuencia de 3 o más números repetidos  (i.e. 11111, 5555, etc.). Adicionalmente para valores demasiado grandes, se decide tomar cómo dato erróneo todo valor superior a 1000 y se le imputa NA.  </t>
   </si>
 </sst>
 </file>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>54</v>
@@ -952,7 +952,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>81</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>113</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="J27" t="s">
         <v>13</v>
@@ -1285,7 +1285,7 @@
         <v>112</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>119</v>
@@ -1342,7 +1342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>116</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="J32" t="s">
         <v>20</v>
@@ -1364,7 +1364,7 @@
         <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>117</v>
@@ -1401,7 +1401,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J35" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>93</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>94</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>96</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>97</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>98</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>99</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>100</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>101</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>102</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>103</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>124</v>
@@ -1651,7 +1651,7 @@
         <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>123</v>
@@ -1671,7 +1671,7 @@
         <v>104</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E53" s="2"/>
     </row>
@@ -1708,13 +1708,13 @@
         <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>129</v>
@@ -1731,57 +1731,57 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1803,73 +1803,73 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/mercado_libre/API/criterios_de_limpieza.xlsx
+++ b/mercado_libre/API/criterios_de_limpieza.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="174">
   <si>
     <t xml:space="preserve"> id </t>
   </si>
@@ -541,6 +541,15 @@
   </si>
   <si>
     <t xml:space="preserve">Se separa el valor numérico de la unidad de medida: total_area = valor numérico, total_area_unidad = unidad de medida. Se eliminan todas las observaciones que contengan una secuencia de 3 o más números repetidos  (i.e. 11111, 5555, etc.). Adicionalmente para valores demasiado grandes, se decide tomar cómo dato erróneo todo valor superior a 1000 y se le imputa NA.  </t>
+  </si>
+  <si>
+    <t>ingresomedio_ECH</t>
+  </si>
+  <si>
+    <t>Ingreso medio por barrio según datos de la Encuesta Contínua de Hogares 2021.</t>
+  </si>
+  <si>
+    <t>Se calcula el ingreso medio por barrio de los hogares en base a información de la ECH. La variable utilizada para construirlos es HT11: INGRESO TOTAL DEL HOGAR CON VALOR LOCATIVO SIN SERVICIO DOMÉSTICO (medido en pesos uruguayos). Se realiza una recodificación Bajo, Medio-Bajo, Medio-Alto, y Alto utilizando los cuartiles.</t>
   </si>
 </sst>
 </file>
@@ -884,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1782,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>149</v>
       </c>
@@ -1782,6 +1791,20 @@
       </c>
       <c r="C61" s="4" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
